--- a/BufferedIOBenchmark/metrics.xlsx
+++ b/BufferedIOBenchmark/metrics.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="11">
   <si>
     <t>operation</t>
   </si>
@@ -61,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +192,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -540,7 +548,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -586,7 +594,39 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -612,8 +652,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -661,8 +701,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-CH"/>
-              <a:t>WRITE</a:t>
+              <a:rPr lang="fr-CH" sz="1800"/>
+              <a:t>Performances in writing</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -717,7 +757,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -761,7 +801,7 @@
                 </a:gsLst>
                 <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -778,36 +818,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>metrics!$C$2:$C$4</c:f>
+              <c:f>metrics!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>metrics!$E$2:$E$4</c:f>
+              <c:f>metrics!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -815,7 +879,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FA05-46B7-B565-C7DD1B353AC8}"/>
+              <c16:uniqueId val="{00000004-120F-4DFD-8587-75ADE280FE65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -824,7 +888,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>metrics!$B$6</c:f>
+              <c:f>metrics!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -834,7 +898,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -878,7 +942,7 @@
                 </a:gsLst>
                 <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
@@ -895,36 +959,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>metrics!$C$6:$C$8</c:f>
+              <c:f>metrics!$C$14:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>metrics!$E$6:$E$8</c:f>
+              <c:f>metrics!$E$14:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>62</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>416</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3662</c:v>
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5684</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -932,7 +1020,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FA05-46B7-B565-C7DD1B353AC8}"/>
+              <c16:uniqueId val="{00000005-120F-4DFD-8587-75ADE280FE65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -941,7 +1029,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>metrics!$B$5</c:f>
+              <c:f>metrics!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -951,7 +1039,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -995,7 +1083,7 @@
                 </a:gsLst>
                 <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
@@ -1012,11 +1100,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>metrics!$C$5</c:f>
+              <c:f>metrics!$C$9:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1024,12 +1124,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>metrics!$E$5</c:f>
+              <c:f>metrics!$E$9:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>226</c:v>
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1037,7 +1149,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-275A-4D6F-8298-B6078E2E2104}"/>
+              <c16:uniqueId val="{00000006-120F-4DFD-8587-75ADE280FE65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1046,7 +1158,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>metrics!$B$9</c:f>
+              <c:f>metrics!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1056,7 +1168,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -1100,7 +1212,7 @@
                 </a:gsLst>
                 <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
@@ -1117,11 +1229,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>metrics!$C$9</c:f>
+              <c:f>metrics!$C$21:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1129,12 +1253,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>metrics!$E$9</c:f>
+              <c:f>metrics!$E$21:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16780</c:v>
+                  <c:v>16450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1142,7 +1278,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-275A-4D6F-8298-B6078E2E2104}"/>
+              <c16:uniqueId val="{00000007-120F-4DFD-8587-75ADE280FE65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1154,11 +1290,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="504544696"/>
-        <c:axId val="504546336"/>
+        <c:axId val="192255544"/>
+        <c:axId val="494232592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="504544696"/>
+        <c:axId val="192255544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1240,8 +1376,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1265,13 +1407,13 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504546336"/>
+        <c:crossAx val="494232592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="50"/>
+        <c:majorUnit val="100"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="504546336"/>
+        <c:axId val="494232592"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1378,7 +1520,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504544696"/>
+        <c:crossAx val="192255544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1492,8 +1634,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-CH"/>
-              <a:t>READ</a:t>
+              <a:rPr lang="fr-CH" sz="1800"/>
+              <a:t>Performances in reading</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1538,7 +1680,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>metrics!$B$10</c:f>
+              <c:f>metrics!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1548,7 +1690,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1592,7 +1734,7 @@
                 </a:gsLst>
                 <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -1609,36 +1751,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>metrics!$C$10:$C$12</c:f>
+              <c:f>metrics!$I$2:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>metrics!$E$10:$E$12</c:f>
+              <c:f>metrics!$K$2:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1646,7 +1812,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9982-40C0-94A0-560EE8ABB2AB}"/>
+              <c16:uniqueId val="{00000000-51CF-48B5-B878-8A3FE252696B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1655,7 +1821,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>metrics!$B$14</c:f>
+              <c:f>metrics!$H$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1665,7 +1831,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1709,7 +1875,7 @@
                 </a:gsLst>
                 <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
@@ -1726,36 +1892,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>metrics!$C$14:$C$16</c:f>
+              <c:f>metrics!$I$14:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>metrics!$E$14:$E$16</c:f>
+              <c:f>metrics!$K$14:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>214</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2050</c:v>
+                <c:pt idx="3">
+                  <c:v>2106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2635</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3642</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1763,7 +1953,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9982-40C0-94A0-560EE8ABB2AB}"/>
+              <c16:uniqueId val="{00000001-51CF-48B5-B878-8A3FE252696B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1772,7 +1962,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>metrics!$B$13</c:f>
+              <c:f>metrics!$H$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1782,7 +1972,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1826,7 +2016,7 @@
                 </a:gsLst>
                 <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
@@ -1843,11 +2033,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>metrics!$C$13</c:f>
+              <c:f>metrics!$I$9:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1855,12 +2057,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>metrics!$E$13</c:f>
+              <c:f>metrics!$K$9:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1868,7 +2082,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9982-40C0-94A0-560EE8ABB2AB}"/>
+              <c16:uniqueId val="{00000002-51CF-48B5-B878-8A3FE252696B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1877,7 +2091,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>metrics!$B$17</c:f>
+              <c:f>metrics!$H$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1887,7 +2101,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -1931,7 +2145,7 @@
                 </a:gsLst>
                 <a:lin ang="5400000" scaled="0"/>
               </a:gradFill>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
@@ -1948,11 +2162,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>metrics!$C$17</c:f>
+              <c:f>metrics!$I$21:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1960,12 +2186,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>metrics!$E$17</c:f>
+              <c:f>metrics!$K$21:$K$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9855</c:v>
+                  <c:v>10122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10230</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10306</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1973,7 +2211,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9982-40C0-94A0-560EE8ABB2AB}"/>
+              <c16:uniqueId val="{00000003-51CF-48B5-B878-8A3FE252696B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1985,11 +2223,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="504544696"/>
-        <c:axId val="504546336"/>
+        <c:axId val="192255544"/>
+        <c:axId val="494232592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="504544696"/>
+        <c:axId val="192255544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2071,8 +2309,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2096,13 +2340,13 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504546336"/>
+        <c:crossAx val="494232592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="50"/>
+        <c:majorUnit val="100"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="504546336"/>
+        <c:axId val="494232592"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2209,7 +2453,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504544696"/>
+        <c:crossAx val="192255544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3377,20 +3621,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>223837</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>71435</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>84482</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Graphique 8"/>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3407,20 +3651,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>233362</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>34635</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>77931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>125992</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>93701</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvPr id="4" name="Graphique 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3441,8 +3685,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:E17" totalsRowShown="0" headerRowCellStyle="Texte explicatif" dataCellStyle="Texte explicatif">
-  <autoFilter ref="A1:E17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="G1:K25" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="G1:K25"/>
   <tableColumns count="5">
     <tableColumn id="1" name="operation"/>
     <tableColumn id="2" name="strategy"/>
@@ -3451,6 +3695,20 @@
     <tableColumn id="5" name="durationInMs"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:E25" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E25"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="operation"/>
+    <tableColumn id="2" name="strategy"/>
+    <tableColumn id="3" name="blockSize"/>
+    <tableColumn id="4" name="fileSizeInBytes"/>
+    <tableColumn id="5" name="durationInMs"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3751,22 +4009,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X67" sqref="X67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1328125" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.53125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3782,8 +4045,23 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3791,16 +4069,31 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D2">
         <v>10485760</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>1000</v>
+      </c>
+      <c r="J2">
+        <v>10485760</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3808,16 +4101,31 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D3">
         <v>10485760</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>500</v>
+      </c>
+      <c r="J3">
+        <v>10485760</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3825,89 +4133,164 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>10485760</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+      <c r="J4">
+        <v>10485760</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>10485760</v>
       </c>
       <c r="E5">
-        <v>226</v>
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>10485760</v>
+      </c>
+      <c r="K5">
+        <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>500</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>10485760</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>10485760</v>
+      </c>
+      <c r="K6">
+        <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>10485760</v>
       </c>
       <c r="E7">
-        <v>416</v>
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>10485760</v>
+      </c>
+      <c r="K7">
+        <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>10485760</v>
       </c>
       <c r="E8">
-        <v>3662</v>
+        <v>137</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>10485760</v>
+      </c>
+      <c r="K8">
+        <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3916,63 +4299,123 @@
         <v>10485760</v>
       </c>
       <c r="E9">
-        <v>16780</v>
+        <v>188</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>10485760</v>
+      </c>
+      <c r="K9">
+        <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>10485760</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>228</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>10485760</v>
+      </c>
+      <c r="K10">
+        <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>10485760</v>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>233</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>10485760</v>
+      </c>
+      <c r="K11">
+        <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>10485760</v>
       </c>
       <c r="E12">
-        <v>24</v>
+        <v>222</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>10485760</v>
+      </c>
+      <c r="K12">
+        <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -3984,83 +4427,415 @@
         <v>10485760</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>217</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>10485760</v>
+      </c>
+      <c r="K13">
+        <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D14">
         <v>10485760</v>
       </c>
       <c r="E14">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>1000</v>
+      </c>
+      <c r="J14">
+        <v>10485760</v>
+      </c>
+      <c r="K14">
+        <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D15">
         <v>10485760</v>
       </c>
       <c r="E15">
-        <v>214</v>
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>500</v>
+      </c>
+      <c r="J15">
+        <v>10485760</v>
+      </c>
+      <c r="K15">
+        <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D16">
         <v>10485760</v>
       </c>
       <c r="E16">
-        <v>2050</v>
+        <v>355</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>50</v>
+      </c>
+      <c r="J16">
+        <v>10485760</v>
+      </c>
+      <c r="K16">
+        <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>10485760</v>
       </c>
       <c r="E17">
-        <v>9855</v>
+        <v>3440</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>10485760</v>
+      </c>
+      <c r="K17">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>10485760</v>
+      </c>
+      <c r="E18">
+        <v>4298</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>10485760</v>
+      </c>
+      <c r="K18">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>10485760</v>
+      </c>
+      <c r="E19">
+        <v>5684</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>10485760</v>
+      </c>
+      <c r="K19">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>10485760</v>
+      </c>
+      <c r="E20">
+        <v>8454</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>10485760</v>
+      </c>
+      <c r="K20">
+        <v>5297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>10485760</v>
+      </c>
+      <c r="E21">
+        <v>16450</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>10485760</v>
+      </c>
+      <c r="K21">
+        <v>10122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>10485760</v>
+      </c>
+      <c r="E22">
+        <v>16450</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>10485760</v>
+      </c>
+      <c r="K22">
+        <v>10122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>10485760</v>
+      </c>
+      <c r="E23">
+        <v>16599</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>10485760</v>
+      </c>
+      <c r="K23">
+        <v>10230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>10485760</v>
+      </c>
+      <c r="E24">
+        <v>16512</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>10485760</v>
+      </c>
+      <c r="K24">
+        <v>10306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>10485760</v>
+      </c>
+      <c r="E25">
+        <v>16480</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>10485760</v>
+      </c>
+      <c r="K25">
+        <v>10159</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>